--- a/biology/Botanique/Vulpin_à_courtes_arêtes/Vulpin_à_courtes_arêtes.xlsx
+++ b/biology/Botanique/Vulpin_à_courtes_arêtes/Vulpin_à_courtes_arêtes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vulpin_%C3%A0_courtes_ar%C3%AAtes</t>
+          <t>Vulpin_à_courtes_arêtes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecurus aequalis, le vulpin fauve, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire des régions tempérées de l'hémisphère nord.
 Ce sont des plantes herbacées annuelles ou vivaces à courte durée de vie, aux tiges (chaumes) décombantes pouvant atteindre 335 cm de long, aux inflorescences en panicules spiciformes.
-Alopecurus aequalis est considérée comme une mauvaise herbes des cultures, notamment de céréales, en particulier de riz, dans de nombreux pays et plus spécialement en Asie[2]. Une population a été signalée  au Japon en 2005 dans des cultures de blé et d'orge d'hiver comme résistante à des herbicides du groupe K1  de la classification HRAC (inhibiteur des microtubules)[3].
+Alopecurus aequalis est considérée comme une mauvaise herbes des cultures, notamment de céréales, en particulier de riz, dans de nombreux pays et plus spécialement en Asie. Une population a été signalée  au Japon en 2005 dans des cultures de blé et d'orge d'hiver comme résistante à des herbicides du groupe K1  de la classification HRAC (inhibiteur des microtubules).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vulpin_%C3%A0_courtes_ar%C3%AAtes</t>
+          <t>Vulpin_à_courtes_arêtes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Vulpin fauve croît au bord des mares forestières ou prairiales[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Vulpin fauve croît au bord des mares forestières ou prairiales.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vulpin_%C3%A0_courtes_ar%C3%AAtes</t>
+          <t>Vulpin_à_courtes_arêtes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais[5] et en Aquitaine[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais et en Aquitaine.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vulpin_%C3%A0_courtes_ar%C3%AAtes</t>
+          <t>Vulpin_à_courtes_arêtes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (1er avril 2018)[7] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1er avril 2018) :
 Alopecurus aequalis subsp. amurensis (Kom.) Hultén
 Alopecurus aequalis var. amurensis (Kom.) Ohwi
 Alopecurus aequalis var. aristulatus (Michx.) Tzvelev
@@ -621,8 +642,43 @@
 Alopecurus palustris subsp. fulvus (Sm.) Syme 
 Alopecurus subaristatus Pers., nom. superfl.
 Tozzettia fulva (Sm.) Lunell
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (1er avril 2018)[8] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vulpin_à_courtes_arêtes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vulpin_%C3%A0_courtes_ar%C3%AAtes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1er avril 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Alopecurus aequalis subsp. aequalis
 Alopecurus aequalis subsp. amurensis (Kom.) Hultén
